--- a/Resources/Шаблоны/Педнагрузка.xlsx
+++ b/Resources/Шаблоны/Педнагрузка.xlsx
@@ -1,39 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\УчетКлиентовСКопией\Resources\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Moscow\УчетКлиентов\Resources\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4986AF-82FF-478B-A975-35C37E6DA80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B347CB6-F438-4BEA-BB66-1610B51A24A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="педнагрузка" sheetId="1" r:id="rId1"/>
+    <sheet name="Педнагрузка_расш" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="firstRow">Педнагрузка_расш!$A$6:$H$6</definedName>
+    <definedName name="tblPednagrExtended">Педнагрузка_расш!$A$5:$H$5</definedName>
+    <definedName name="title">Педнагрузка_расш!$A$1</definedName>
+    <definedName name="worker">Педнагрузка_расш!$A$3</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>№ п/п</t>
   </si>
@@ -51,18 +50,53 @@
   </si>
   <si>
     <t>Выполнение педагогической нагрузки за период с $ДатаНачала$ по $ДатаОкончания$ включительно по отделу непрерывного профессионального медицинского и фармацевтического образования</t>
+  </si>
+  <si>
+    <t>Акмаева Т.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">номер группы </t>
+  </si>
+  <si>
+    <t>лекции</t>
+  </si>
+  <si>
+    <t>прак. занятия</t>
+  </si>
+  <si>
+    <t>симул. занятия</t>
+  </si>
+  <si>
+    <t>консультация</t>
+  </si>
+  <si>
+    <t>ПА</t>
+  </si>
+  <si>
+    <t>ИА</t>
+  </si>
+  <si>
+    <t>Итого</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,6 +114,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -139,28 +180,433 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{237BE34F-89B8-4B3F-810B-EEE06B4E7EC3}"/>
+    <cellStyle name="Обычный 3" xfId="1" xr:uid="{89F08791-6094-435F-B517-555D08EE6C75}"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -195,382 +641,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,13 +656,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64F9D0E8-629B-4A02-BCCC-170329961C19}" name="Таблица" displayName="Таблица" ref="A3:E3" headerRowCount="0" totalsRowShown="0" headerRowDxfId="0" dataDxfId="13" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64F9D0E8-629B-4A02-BCCC-170329961C19}" name="Таблица" displayName="Таблица" ref="A3:E3" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E5167359-564F-4E55-973E-81761FAC9AD4}" name="Столбец1" headerRowDxfId="8" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4ADA9CE1-42E2-42B4-8694-D6B00D655C2E}" name="Столбец2" headerRowDxfId="9" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A00E3382-677F-49D7-B4EC-00AD6D43353C}" name="Столбец3" headerRowDxfId="10" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{BF48CA5D-0FC5-4515-AA4A-37A5720D96B8}" name="Столбец4" headerRowDxfId="11" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{613A0681-28E1-4275-82E5-372F59A12AEB}" name="Столбец5" headerRowDxfId="12" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{E5167359-564F-4E55-973E-81761FAC9AD4}" name="Столбец1" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4ADA9CE1-42E2-42B4-8694-D6B00D655C2E}" name="Столбец2" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{A00E3382-677F-49D7-B4EC-00AD6D43353C}" name="Столбец3" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BF48CA5D-0FC5-4515-AA4A-37A5720D96B8}" name="Столбец4" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{613A0681-28E1-4275-82E5-372F59A12AEB}" name="Столбец5" headerRowDxfId="1" dataDxfId="0">
       <calculatedColumnFormula>Таблица[[#All],[Столбец4]]+Таблица[[#All],[Столбец3]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -865,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,37 +947,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4">
         <f>Таблица[[#All],[Столбец4]]+Таблица[[#All],[Столбец3]]</f>
         <v>0</v>
       </c>
@@ -921,4 +991,86 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C977D5C4-B853-4822-9910-207C8BCEB43C}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17" style="6" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="9.28515625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/Шаблоны/Педнагрузка.xlsx
+++ b/Resources/Шаблоны/Педнагрузка.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Moscow\УчетКлиентов\Resources\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B347CB6-F438-4BEA-BB66-1610B51A24A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A437F-00B4-4D50-A80B-9B4B070172E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="390" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="педнагрузка" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>№ п/п</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Выполнение педагогической нагрузки за период с $ДатаНачала$ по $ДатаОкончания$ включительно по отделу непрерывного профессионального медицинского и фармацевтического образования</t>
-  </si>
-  <si>
-    <t>Акмаева Т.А.</t>
   </si>
   <si>
     <t xml:space="preserve">номер группы </t>
@@ -213,6 +210,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -222,8 +221,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -947,13 +944,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -998,7 +995,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,57 +1011,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
